--- a/создание карточки XLS/OZON_создание карточки XLS.xlsx
+++ b/создание карточки XLS/OZON_создание карточки XLS.xlsx
@@ -5132,7 +5132,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5246,6 +5246,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9272,7 +9276,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -9426,11 +9430,11 @@
   <dimension ref="A1:AS1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="U4" activeCellId="0" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9780,7 +9784,7 @@
       <c r="S4" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="29" t="s">
         <v>344</v>
       </c>
       <c r="V4" s="9" t="s">
@@ -9890,7 +9894,7 @@
         <v>210</v>
       </c>
       <c r="N6" s="0"/>
-      <c r="U6" s="26"/>
+      <c r="U6" s="29"/>
       <c r="Z6" s="26"/>
       <c r="AC6" s="26"/>
       <c r="AE6" s="26"/>
